--- a/biology/Histoire de la zoologie et de la botanique/Grace_Evelyn_Pickford/Grace_Evelyn_Pickford.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Grace_Evelyn_Pickford/Grace_Evelyn_Pickford.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grace Evelyn Pickford, née le 24 mars 1902 à Bournemouth et morte le 20 janvier 1986 à Ohio, est une biologiste et une ichtyologiste américaine d’origine britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est la fille de William et d’Evelyn May (née Flower) Pickford. Pickford étudie au Newnham College à Cambridge où elle étudie l’histoire naturelle de 1921 à 1925. Pickford part en Afrique du Sud où elle travaille avec George Evelyn Hutchinson (1903-1991) en limnologie. Les deux chercheurs se marient mais divorcent quelques années après. Elle part étudier à l’université Yale où elle obtient son doctorat en 1931. Elle travaille dans le département de biologie de cette université, d’abord comme chercheuse invitée (1931-1933), conférencière (1957-1959), professeur associé (1959-1969), professeur (1969-1970) et enfin professeur émérite (1970). En outre, elle enseigne à l’Albertus Magnus College (Connecticut).
 Pickford étudie l’endocrinologie des poissons mais aussi les oligochètes, la biologie des céphalopodes. Elle utilise les riches collections du Muséum d'histoire naturelle Peabody de Yale pour étudier la taxinomie des céphalopodes. Elle participe à une expédition océanographique en 1951 dans la région indo-malaisienne à bord du navire danois Galathea.
